--- a/data/trans_dic/P54_A_5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido (tasa de respuesta: 93,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>6,33; 16,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>0,0; 5,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>8,97; 20,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>0,0; 3,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>8,87; 16,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>4,78; 27,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>0,0; 2,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>4,36; 13,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,55; 4,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>5,83; 18,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,4; 2,66</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>3,18; 12,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>0,0; 10,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>6,65; 14,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,24; 2,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,69; 11,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 6,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,27; 1,56</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>4,77; 12,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,26; 2,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>9,7; 18,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0,3; 2,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>8,14; 13,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,45; 2,2</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>7,0; 18,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,36</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>6,12; 18,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>8,01; 16,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,21; 1,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>0,76; 7,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>6,62; 17,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>0,84; 5,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,0; 4,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>4,28; 11,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,53; 3,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,54; 11,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,37; 2,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,18; 0,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,53; 13,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,29; 1,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,57; 1,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>8,67; 11,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,46; 1,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,47; 1,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido (tasa de respuesta: 93,98%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45508</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7555</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54332</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5576</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>99840</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7555</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5576</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27180; 70663</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25946</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35871; 81093</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17913</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>73551; 134140</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26578</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19205</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42637</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2708</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30535</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8985</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>73172</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11693</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17944; 104231</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14373</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16078; 50791</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16946</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2738; 24271</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>43368; 134326</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19112</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4202; 28039</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33461</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16969</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4374</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58136</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2411</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5666</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>91596</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19380</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10040</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16765; 64266</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 68498</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13313</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>38515; 82816</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12287</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1685; 14716</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62938; 125324</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 82831</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3723; 21508</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38638</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4733</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5887</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>64630</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7704</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>103268</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4733</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13590</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22725; 59417</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 18977</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1616; 16176</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>47475; 88588</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1926; 18055</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>78630; 131562</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16742</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5812; 28075</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35595</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2110</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>28565</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>64159</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6533</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21789; 57042</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13195</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8914</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14731; 43523</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13610</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>44218; 93322</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2080; 17726</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8939</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31072</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14884</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>37620</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17653</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2001; 18429</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14166</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17917; 48185</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5858; 37279</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 27908</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>22801; 59489</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6503; 42978</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 25372</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>202387</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>34135</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>14736</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>267270</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>25114</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>35102</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>469657</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>59249</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>49838</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>155645; 271877</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12578; 95740</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6215; 30113</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>223738; 312519</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>10069; 48176</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19743; 56656</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>409979; 553655</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31464; 121070</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>32094; 75081</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>